--- a/excel/ fon_it_eigenvector_centrality.xlsx
+++ b/excel/ fon_it_eigenvector_centrality.xlsx
@@ -381,51 +381,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Milos Milovanovic</t>
+          <t>Miroslav Minovic</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4476206972546178</v>
+        <v>0.4476206972546177</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ivan Milenkovic</t>
+          <t>Milos Milovanovic</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4476206972546175</v>
+        <v>0.4476206972546176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Miroslav Minovic</t>
+          <t>Ivan Milenkovic</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4476206972546174</v>
+        <v>0.4476206972546175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dusan Starcevic</t>
+          <t>Dejan Simic</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3917472413006008</v>
+        <v>0.3917472413006009</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dejan Simic</t>
+          <t>Dusan Starcevic</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3917472413006007</v>
+        <v>0.3917472413006008</v>
       </c>
     </row>
     <row r="7">
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3032743510991454</v>
+        <v>0.3032743510991451</v>
       </c>
     </row>
   </sheetData>

--- a/excel/ fon_it_eigenvector_centrality.xlsx
+++ b/excel/ fon_it_eigenvector_centrality.xlsx
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4476206972546176</v>
+        <v>0.4476206972546177</v>
       </c>
     </row>
     <row r="4">
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3917472413006009</v>
+        <v>0.3917472413006007</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3917472413006008</v>
+        <v>0.3917472413006007</v>
       </c>
     </row>
     <row r="7">
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3032743510991451</v>
+        <v>0.3032743510991455</v>
       </c>
     </row>
   </sheetData>

--- a/excel/ fon_it_eigenvector_centrality.xlsx
+++ b/excel/ fon_it_eigenvector_centrality.xlsx
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4476206972546177</v>
+        <v>0.4476206972546175</v>
       </c>
     </row>
     <row r="3">
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4476206972546177</v>
+        <v>0.4476206972546175</v>
       </c>
     </row>
     <row r="4">
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3917472413006007</v>
+        <v>0.3917472413006008</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3917472413006007</v>
+        <v>0.3917472413006008</v>
       </c>
     </row>
     <row r="7">
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3032743510991455</v>
+        <v>0.3032743510991452</v>
       </c>
     </row>
   </sheetData>
